--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RawrBear\Development_Env\Sandbox\python-projects\Label_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{ECAC2C74-1C8B-4EDF-8AFA-7D50E345DBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7DD20B-C6DF-4558-896D-56CAEB4509BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="2235" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="4890" yWindow="2235" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
@@ -1057,7 +1057,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1891,11 +1891,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RawrBear\Development_Env\Sandbox\python-projects\Label_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7DD20B-C6DF-4558-896D-56CAEB4509BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A465206-6EB5-440E-918E-AA3A4F8BF857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="2235" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24075" yWindow="3045" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="331">
   <si>
     <t>52113 Franklin Avenue</t>
   </si>
@@ -712,33 +712,6 @@
     <t>Shingle Springs</t>
   </si>
   <si>
-    <t>7231 Church Road</t>
-  </si>
-  <si>
-    <t>Port Washington</t>
-  </si>
-  <si>
-    <t>71 Cedar Lane</t>
-  </si>
-  <si>
-    <t>Kansas City</t>
-  </si>
-  <si>
-    <t>592 Route 10</t>
-  </si>
-  <si>
-    <t>Arlington</t>
-  </si>
-  <si>
-    <t>92557 Prospect Avenue</t>
-  </si>
-  <si>
-    <t>Lydia</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
     <t>NAME</t>
   </si>
   <si>
@@ -1040,18 +1013,6 @@
   </si>
   <si>
     <t>Mr. Marvin Spencer</t>
-  </si>
-  <si>
-    <t>Mr. Erick Kaur</t>
-  </si>
-  <si>
-    <t>Mrs. Leah Poole</t>
-  </si>
-  <si>
-    <t>Mr. Kieth Norman</t>
-  </si>
-  <si>
-    <t>Mrs. Marjorie Walsh</t>
   </si>
 </sst>
 </file>
@@ -1892,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD103"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A101" sqref="A98:XFD101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,24 +1869,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1942,7 +1903,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1959,7 +1920,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1976,7 +1937,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1993,7 +1954,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -2010,7 +1971,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -2027,7 +1988,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -2044,7 +2005,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -2061,7 +2022,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -2078,7 +2039,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -2095,7 +2056,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
@@ -2112,7 +2073,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -2129,7 +2090,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -2146,7 +2107,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
@@ -2163,7 +2124,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
@@ -2180,7 +2141,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -2197,7 +2158,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B18" t="s">
         <v>44</v>
@@ -2214,7 +2175,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
@@ -2231,7 +2192,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
@@ -2248,7 +2209,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
@@ -2265,7 +2226,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
@@ -2282,7 +2243,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
@@ -2299,7 +2260,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B24" t="s">
         <v>61</v>
@@ -2316,7 +2277,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s">
         <v>64</v>
@@ -2333,7 +2294,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s">
         <v>67</v>
@@ -2350,7 +2311,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s">
         <v>70</v>
@@ -2367,7 +2328,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s">
         <v>73</v>
@@ -2384,7 +2345,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s">
         <v>76</v>
@@ -2401,7 +2362,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s">
         <v>78</v>
@@ -2418,7 +2379,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s">
         <v>81</v>
@@ -2435,7 +2396,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s">
         <v>84</v>
@@ -2452,7 +2413,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s">
         <v>86</v>
@@ -2469,7 +2430,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B34" t="s">
         <v>88</v>
@@ -2486,7 +2447,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B35" t="s">
         <v>90</v>
@@ -2503,7 +2464,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B36" t="s">
         <v>93</v>
@@ -2520,7 +2481,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B37" t="s">
         <v>96</v>
@@ -2537,7 +2498,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B38" t="s">
         <v>98</v>
@@ -2554,7 +2515,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B39" t="s">
         <v>100</v>
@@ -2571,7 +2532,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B40" t="s">
         <v>102</v>
@@ -2588,7 +2549,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B41" t="s">
         <v>104</v>
@@ -2605,7 +2566,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B42" t="s">
         <v>107</v>
@@ -2622,7 +2583,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B43" t="s">
         <v>110</v>
@@ -2639,7 +2600,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B44" t="s">
         <v>112</v>
@@ -2656,7 +2617,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B45" t="s">
         <v>114</v>
@@ -2673,7 +2634,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B46" t="s">
         <v>116</v>
@@ -2690,7 +2651,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B47" t="s">
         <v>118</v>
@@ -2707,7 +2668,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B48" t="s">
         <v>120</v>
@@ -2724,7 +2685,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B49" t="s">
         <v>122</v>
@@ -2741,7 +2702,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B50" t="s">
         <v>124</v>
@@ -2758,7 +2719,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B51" t="s">
         <v>127</v>
@@ -2775,7 +2736,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B52" t="s">
         <v>129</v>
@@ -2792,7 +2753,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B53" t="s">
         <v>130</v>
@@ -2809,7 +2770,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B54" t="s">
         <v>133</v>
@@ -2826,7 +2787,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B55" t="s">
         <v>135</v>
@@ -2843,7 +2804,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B56" t="s">
         <v>137</v>
@@ -2860,7 +2821,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B57" t="s">
         <v>140</v>
@@ -2877,7 +2838,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B58" t="s">
         <v>142</v>
@@ -2894,7 +2855,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B59" t="s">
         <v>144</v>
@@ -2911,7 +2872,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B60" t="s">
         <v>146</v>
@@ -2928,7 +2889,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B61" t="s">
         <v>149</v>
@@ -2945,7 +2906,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B62" t="s">
         <v>151</v>
@@ -2962,7 +2923,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B63" t="s">
         <v>153</v>
@@ -2979,7 +2940,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B64" t="s">
         <v>155</v>
@@ -2996,7 +2957,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B65" t="s">
         <v>157</v>
@@ -3013,7 +2974,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B66" t="s">
         <v>159</v>
@@ -3030,7 +2991,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B67" t="s">
         <v>161</v>
@@ -3047,7 +3008,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B68" t="s">
         <v>164</v>
@@ -3064,7 +3025,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B69" t="s">
         <v>166</v>
@@ -3081,7 +3042,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B70" t="s">
         <v>168</v>
@@ -3098,7 +3059,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B71" t="s">
         <v>170</v>
@@ -3115,7 +3076,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B72" t="s">
         <v>172</v>
@@ -3132,7 +3093,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B73" t="s">
         <v>174</v>
@@ -3149,7 +3110,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B74" t="s">
         <v>176</v>
@@ -3166,7 +3127,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B75" t="s">
         <v>178</v>
@@ -3183,7 +3144,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B76" t="s">
         <v>180</v>
@@ -3200,7 +3161,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B77" t="s">
         <v>182</v>
@@ -3217,7 +3178,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B78" t="s">
         <v>184</v>
@@ -3234,7 +3195,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B79" t="s">
         <v>187</v>
@@ -3251,7 +3212,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B80" t="s">
         <v>190</v>
@@ -3268,7 +3229,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B81" t="s">
         <v>192</v>
@@ -3285,7 +3246,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B82" t="s">
         <v>194</v>
@@ -3302,7 +3263,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B83" t="s">
         <v>196</v>
@@ -3319,7 +3280,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B84" t="s">
         <v>198</v>
@@ -3336,7 +3297,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B85" t="s">
         <v>201</v>
@@ -3353,7 +3314,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B86" t="s">
         <v>204</v>
@@ -3370,7 +3331,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B87" t="s">
         <v>206</v>
@@ -3387,7 +3348,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B88" t="s">
         <v>209</v>
@@ -3404,7 +3365,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B89" t="s">
         <v>210</v>
@@ -3421,7 +3382,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B90" t="s">
         <v>212</v>
@@ -3438,7 +3399,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B91" t="s">
         <v>215</v>
@@ -3455,7 +3416,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B92" t="s">
         <v>217</v>
@@ -3472,7 +3433,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B93" t="s">
         <v>219</v>
@@ -3489,7 +3450,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B94" t="s">
         <v>221</v>
@@ -3506,7 +3467,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B95" t="s">
         <v>223</v>
@@ -3523,7 +3484,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B96" t="s">
         <v>226</v>
@@ -3540,7 +3501,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B97" t="s">
         <v>228</v>
@@ -3553,74 +3514,6 @@
       </c>
       <c r="E97">
         <v>95682</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>340</v>
-      </c>
-      <c r="B98" t="s">
-        <v>230</v>
-      </c>
-      <c r="C98" t="s">
-        <v>231</v>
-      </c>
-      <c r="D98" t="s">
-        <v>109</v>
-      </c>
-      <c r="E98">
-        <v>53074</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>341</v>
-      </c>
-      <c r="B99" t="s">
-        <v>232</v>
-      </c>
-      <c r="C99" t="s">
-        <v>233</v>
-      </c>
-      <c r="D99" t="s">
-        <v>200</v>
-      </c>
-      <c r="E99">
-        <v>64163</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>342</v>
-      </c>
-      <c r="B100" t="s">
-        <v>234</v>
-      </c>
-      <c r="C100" t="s">
-        <v>235</v>
-      </c>
-      <c r="D100" t="s">
-        <v>92</v>
-      </c>
-      <c r="E100">
-        <v>36722</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>343</v>
-      </c>
-      <c r="B101" t="s">
-        <v>236</v>
-      </c>
-      <c r="C101" t="s">
-        <v>237</v>
-      </c>
-      <c r="D101" t="s">
-        <v>238</v>
-      </c>
-      <c r="E101">
-        <v>70569</v>
       </c>
     </row>
   </sheetData>
